--- a/biology/Zoologie/Cressida_cressida/Cressida_cressida.xlsx
+++ b/biology/Zoologie/Cressida_cressida/Cressida_cressida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cressida cressida  est un insecte lépidoptère de la famille des Papilionidae, de la sous-famille des Papilioninae et du genre Cressida  dont il est le seul représentant.
 </t>
@@ -511,16 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Cressida a été nommé par Swainson en 1832.
-Cressida cressida a été décrit par Fabricius en 1775 sous le nom de Papilio cressida[1].
-Sous-espèces
-Cressida cressida cressida présent en Australie.
-Cressida cressida cassandra (Waterhouse &amp; Lyell, 1914); présent en Australie.
-Cressida cressida troilus (Butler, 1876); présent en Papouasie[1].
-Nom vernaculaire
-Cressida cressida se nomme Clearwing Swallowtail ou Big Greasy en anglais.
+Cressida cressida a été décrit par Fabricius en 1775 sous le nom de Papilio cressida.
 </t>
         </is>
       </c>
@@ -546,15 +554,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cressida cressida est un grand papillon  d'une envergure de 70 mm à 80 mm, avec un dimorphisme sexuel. La femelle est de couleur blanc nacré. Le mâle présente des ailes antérieures blanc nacré marquées de deux grosses taches rondes noires, alors que les postérieures sont blanches dans la partie médiane, noires dans la partie basale et la partie marginale avec une ligne de points rouges submarginaux[2].. 
-Chenille
-La chenille est couverte de tubercules marron et de tubercules blancs[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cressida cressida cressida présent en Australie.
+Cressida cressida cassandra (Waterhouse &amp; Lyell, 1914); présent en Australie.
+Cressida cressida troilus (Butler, 1876); présent en Papouasie.</t>
         </is>
       </c>
     </row>
@@ -579,12 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des aristoloches, dont Aristolochia holtzei, Aristolochia pubera et Aristolochia thozetii[1].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cressida cressida se nomme Clearwing Swallowtail ou Big Greasy en anglais.
 </t>
         </is>
       </c>
@@ -610,14 +629,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Australie et en Nouvelle-Guinée[1].
-Protection
-Pas de statut de protection particulier.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cressida cressida est un grand papillon  d'une envergure de 70 mm à 80 mm, avec un dimorphisme sexuel. La femelle est de couleur blanc nacré. Le mâle présente des ailes antérieures blanc nacré marquées de deux grosses taches rondes noires, alors que les postérieures sont blanches dans la partie médiane, noires dans la partie basale et la partie marginale avec une ligne de points rouges submarginaux.. 
 </t>
         </is>
       </c>
@@ -643,12 +662,154 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est couverte de tubercules marron et de tubercules blancs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cressida_cressida</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cressida_cressida</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des aristoloches, dont Aristolochia holtzei, Aristolochia pubera et Aristolochia thozetii.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cressida_cressida</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cressida_cressida</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Australie et en Nouvelle-Guinée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cressida_cressida</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cressida_cressida</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cressida_cressida</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cressida_cressida</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La poste australienne a émis deux timbres en 1981 et en 1997[2].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poste australienne a émis deux timbres en 1981 et en 1997.
 </t>
         </is>
       </c>
